--- a/image/metadataresource.xlsx
+++ b/image/metadataresource.xlsx
@@ -735,44 +735,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="34.0625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="34.92578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="77.41015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="77.84765625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="60.71484375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="48.91796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="32.79296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="60.53125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="48.515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="22.671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/metadataresource.xlsx
+++ b/image/metadataresource.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="185">
   <si>
     <t>Path</t>
   </si>
@@ -159,7 +159,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -356,10 +356,6 @@
   </si>
   <si>
     <t>MetadataResource.version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Business version of the metadata resource</t>
@@ -735,44 +731,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="34.92578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="34.0625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="77.84765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="77.41015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="60.53125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="48.515625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="60.71484375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="48.91796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="32.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="22.67578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1996,16 +1992,16 @@
         <v>47</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2070,10 +2066,10 @@
         <v>39</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>39</v>
@@ -2081,7 +2077,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2104,19 +2100,19 @@
         <v>47</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>39</v>
@@ -2165,7 +2161,7 @@
         <v>39</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>46</v>
@@ -2174,7 +2170,7 @@
         <v>40</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>39</v>
@@ -2191,7 +2187,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2214,16 +2210,16 @@
         <v>47</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2273,7 +2269,7 @@
         <v>39</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>46</v>
@@ -2288,7 +2284,7 @@
         <v>39</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>39</v>
@@ -2299,7 +2295,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2325,13 +2321,13 @@
         <v>65</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2357,49 +2353,49 @@
         <v>39</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="X15" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="X15" t="s" s="2">
+      <c r="Y15" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
+      <c r="AK15" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>39</v>
@@ -2407,7 +2403,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2430,19 +2426,19 @@
         <v>47</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>39</v>
@@ -2491,7 +2487,7 @@
         <v>39</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>46</v>
@@ -2506,10 +2502,10 @@
         <v>39</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>39</v>
@@ -2517,11 +2513,11 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -2540,16 +2536,16 @@
         <v>47</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -2599,7 +2595,7 @@
         <v>39</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>46</v>
@@ -2614,10 +2610,10 @@
         <v>39</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>39</v>
@@ -2625,7 +2621,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2648,19 +2644,19 @@
         <v>47</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>39</v>
@@ -2709,7 +2705,7 @@
         <v>39</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>46</v>
@@ -2724,10 +2720,10 @@
         <v>39</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>39</v>
@@ -2735,7 +2731,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2758,16 +2754,16 @@
         <v>47</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -2817,7 +2813,7 @@
         <v>39</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>46</v>
@@ -2832,7 +2828,7 @@
         <v>39</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>39</v>
@@ -2843,7 +2839,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2866,16 +2862,16 @@
         <v>39</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -2925,7 +2921,7 @@
         <v>39</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>46</v>
@@ -2940,7 +2936,7 @@
         <v>39</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>39</v>
@@ -2951,7 +2947,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2974,19 +2970,19 @@
         <v>47</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>39</v>
@@ -3035,7 +3031,7 @@
         <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>46</v>
@@ -3050,7 +3046,7 @@
         <v>39</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>39</v>
@@ -3061,7 +3057,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3084,16 +3080,16 @@
         <v>47</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3119,14 +3115,14 @@
         <v>39</v>
       </c>
       <c r="W22" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="X22" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="X22" t="s" s="2">
+      <c r="Y22" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="Y22" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="Z22" t="s" s="2">
         <v>39</v>
       </c>
@@ -3143,7 +3139,7 @@
         <v>39</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>46</v>
@@ -3158,7 +3154,7 @@
         <v>39</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>39</v>
